--- a/.dox/schemas.xlsx
+++ b/.dox/schemas.xlsx
@@ -135,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +145,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -226,12 +262,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -509,7 +558,7 @@
   <dimension ref="A2:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,43 +579,43 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="15"/>
       <c r="K3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="P3" s="1" t="s">
+      <c r="O3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
@@ -580,9 +629,9 @@
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -596,9 +645,9 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E8" s="2" t="s">
@@ -621,17 +670,17 @@
       <c r="S8" s="8"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="7" t="s">
         <v>9</v>
       </c>
@@ -642,7 +691,7 @@
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="14" t="s">
         <v>1</v>
       </c>
       <c r="R9" s="7" t="s">
@@ -746,10 +795,10 @@
   <mergeCells count="35">
     <mergeCell ref="R10:S10"/>
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="Q8:S8"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="I3:J3"/>

--- a/.dox/schemas.xlsx
+++ b/.dox/schemas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>cinema</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>code</t>
+  </si>
+  <si>
+    <t>datetime</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -208,53 +211,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -555,204 +518,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S24"/>
+  <dimension ref="A2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="O2" s="8" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="O2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="4"/>
+      <c r="F3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="15" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="12"/>
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="O3" s="12" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E8" s="2" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
-      <c r="Q8" s="8" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="U8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="13" t="s">
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="14"/>
+      <c r="J9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="Q9" s="14" t="s">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="V9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -762,7 +731,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -772,7 +741,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -787,20 +756,21 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="3" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="E8:P8"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="V9:W9"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
@@ -823,7 +793,6 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E8:O8"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>

--- a/.dox/schemas.xlsx
+++ b/.dox/schemas.xlsx
@@ -218,21 +218,21 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -521,184 +521,187 @@
   <dimension ref="A2:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="A28" sqref="A28:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="5.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="O2" s="5" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="O2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="F3" s="8" t="s">
+      <c r="D3" s="8"/>
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="12" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="O3" s="9" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="O3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Q3" s="4"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="U8" s="5" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="U8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="4" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="6" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U9" s="11" t="s">
+      <c r="U9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="V9" s="4" t="s">
+      <c r="V9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W9" s="4"/>
+      <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
       <c r="P10" s="1"/>
       <c r="U10" s="1"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
       <c r="P11" s="1"/>
       <c r="U11" s="1"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -711,7 +714,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -721,7 +724,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -731,7 +734,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -741,7 +744,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -756,18 +759,20 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="E8:P8"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="U8:W8"/>
     <mergeCell ref="V9:W9"/>
@@ -778,25 +783,23 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="E8:P8"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L9:O9"/>
     <mergeCell ref="L10:O10"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
